--- a/src/analysis_examples/circadb/results_lomb/cosinor_10472589_phospho2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10472589_phospho2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23181701156689027, 0.36257791273426054]</t>
+          <t>[0.23037269536392313, 0.3640222289372277]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.138005354510256e-09</v>
+        <v>7.466676166245634e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>5.138005354510256e-09</v>
+        <v>7.466676166245634e-09</v>
       </c>
       <c r="O2" t="n">
         <v>0.2956053147521924</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.49823175623819915, 0.5749680395071753]</t>
+          <t>[0.4982426809418544, 0.5749571148035201]</t>
         </is>
       </c>
       <c r="U2" t="n">
